--- a/balance_sheet_test_data.xlsx
+++ b/balance_sheet_test_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Balance Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Balance Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="$#,##0.00;[Red]($#,##0.00);-"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.00;[Red]($#,##0.00);-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -40,7 +40,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -67,6 +67,11 @@
         <fgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -80,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -101,17 +106,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,12 +488,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -506,7 +517,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Made-up data for testing only; values/formulas are intentionally simple.</t>
+          <t>Made-up data for testing only; values/formulas are intentionally simple. (modified variant)</t>
         </is>
       </c>
     </row>
@@ -588,23 +599,23 @@
           <t>Cash</t>
         </is>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="15">
         <f>B31*0.12</f>
         <v/>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="15">
         <f>C31*0.12</f>
         <v/>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="15">
         <f>D31*0.12</f>
         <v/>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="15">
         <f>E31*0.12</f>
         <v/>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="15">
         <f>F31*0.12</f>
         <v/>
       </c>
@@ -615,23 +626,23 @@
           <t>Accounts Receivable</t>
         </is>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="15">
         <f>B31*0.08</f>
         <v/>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="15">
         <f>C31*0.08</f>
         <v/>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="15">
         <f>D31*0.08</f>
         <v/>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="15">
         <f>E31*0.08</f>
         <v/>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="15">
         <f>F31*0.08</f>
         <v/>
       </c>
@@ -642,23 +653,23 @@
           <t>Inventory</t>
         </is>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="15">
         <f>B31*0.05</f>
         <v/>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="15">
         <f>C31*0.05</f>
         <v/>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="15">
         <f>D31*0.05</f>
         <v/>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <f>E31*0.05</f>
         <v/>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="15">
         <f>F31*0.05</f>
         <v/>
       </c>
@@ -669,23 +680,23 @@
           <t>Other Current Assets</t>
         </is>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="15">
         <f>B31*0.03</f>
         <v/>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="15">
         <f>C31*0.03</f>
         <v/>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="15">
         <f>D31*0.03</f>
         <v/>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="15">
         <f>E31*0.03</f>
         <v/>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="15">
         <f>F31*0.03</f>
         <v/>
       </c>
@@ -696,23 +707,23 @@
           <t>Total Current Assets</t>
         </is>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="16">
         <f>SUM(B8:B11)</f>
         <v/>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="16">
         <f>SUM(C8:C11)</f>
         <v/>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="16">
         <f>SUM(D8:D11)</f>
         <v/>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="16">
         <f>SUM(E8:E11)</f>
         <v/>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="16">
         <f>SUM(F8:F11)</f>
         <v/>
       </c>
@@ -723,23 +734,23 @@
           <t>PP&amp;E, net</t>
         </is>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="15">
         <f>B31*0.27</f>
         <v/>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="15">
         <f>C31*0.27</f>
         <v/>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="15">
         <f>D31*0.27</f>
         <v/>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="15">
         <f>E31*0.27</f>
         <v/>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="15">
         <f>F31*0.27</f>
         <v/>
       </c>
@@ -750,23 +761,23 @@
           <t>Intangibles</t>
         </is>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="15">
         <f>150</f>
         <v/>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="15">
         <f>150</f>
         <v/>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="15">
         <f>150</f>
         <v/>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="15">
         <f>150</f>
         <v/>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="15">
         <f>150</f>
         <v/>
       </c>
@@ -777,23 +788,23 @@
           <t>Other Assets</t>
         </is>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="15">
         <f>50</f>
         <v/>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="15">
         <f>50</f>
         <v/>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="15">
         <f>50</f>
         <v/>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="15">
         <f>50</f>
         <v/>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="15">
         <f>50</f>
         <v/>
       </c>
@@ -804,23 +815,23 @@
           <t>Total Assets</t>
         </is>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="16">
         <f>SUM(B12:B15)</f>
         <v/>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="16">
         <f>SUM(C12:C15)</f>
         <v/>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="16">
         <f>SUM(D12:D15)</f>
         <v/>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="16">
         <f>SUM(E12:E15)</f>
         <v/>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="16">
         <f>SUM(F12:F15)</f>
         <v/>
       </c>
@@ -846,23 +857,23 @@
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="15">
         <f>B31*0.06</f>
         <v/>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="15">
         <f>C31*0.06</f>
         <v/>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="15">
         <f>D31*0.06</f>
         <v/>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="15">
         <f>E31*0.06</f>
         <v/>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="15">
         <f>F31*0.06</f>
         <v/>
       </c>
@@ -873,23 +884,23 @@
           <t>Accrued Liabilities</t>
         </is>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="15">
         <f>B31*0.04</f>
         <v/>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="15">
         <f>C31*0.04</f>
         <v/>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="15">
         <f>D31*0.04</f>
         <v/>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="15">
         <f>E31*0.04</f>
         <v/>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="15">
         <f>F31*0.04</f>
         <v/>
       </c>
@@ -900,23 +911,23 @@
           <t>Short-Term Debt</t>
         </is>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="15">
         <f>25</f>
         <v/>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="15">
         <f>25</f>
         <v/>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="15">
         <f>25</f>
         <v/>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="15">
         <f>25</f>
         <v/>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="15">
         <f>25</f>
         <v/>
       </c>
@@ -927,23 +938,23 @@
           <t>Total Current Liabilities</t>
         </is>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="16">
         <f>SUM(B19:B21)</f>
         <v/>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="16">
         <f>SUM(C19:C21)</f>
         <v/>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="16">
         <f>SUM(D19:D21)</f>
         <v/>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="16">
         <f>SUM(E19:E21)</f>
         <v/>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="16">
         <f>SUM(F19:F21)</f>
         <v/>
       </c>
@@ -954,23 +965,23 @@
           <t>Long-Term Debt</t>
         </is>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="15">
         <f>350</f>
         <v/>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="15">
         <f>350</f>
         <v/>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="15">
         <f>350</f>
         <v/>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="15">
         <f>350</f>
         <v/>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="15">
         <f>350</f>
         <v/>
       </c>
@@ -981,23 +992,23 @@
           <t>Other Liabilities</t>
         </is>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="15">
         <f>B31*0.02</f>
         <v/>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="15">
         <f>C31*0.02</f>
         <v/>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="15">
         <f>D31*0.02</f>
         <v/>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="15">
         <f>E31*0.02</f>
         <v/>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="15">
         <f>F31*0.02</f>
         <v/>
       </c>
@@ -1008,23 +1019,23 @@
           <t>Total Liabilities</t>
         </is>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="16">
         <f>SUM(B22:B24)</f>
         <v/>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="16">
         <f>SUM(C22:C24)</f>
         <v/>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="16">
         <f>SUM(D22:D24)</f>
         <v/>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="16">
         <f>SUM(E22:E24)</f>
         <v/>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="16">
         <f>SUM(F22:F24)</f>
         <v/>
       </c>
@@ -1035,23 +1046,23 @@
           <t>Common Equity</t>
         </is>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="15">
         <f>200</f>
         <v/>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="15">
         <f>200</f>
         <v/>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="15">
         <f>200</f>
         <v/>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="15">
         <f>200</f>
         <v/>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="15">
         <f>200</f>
         <v/>
       </c>
@@ -1062,23 +1073,23 @@
           <t>Retained Earnings (Plug)</t>
         </is>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="15">
         <f>B16-B25-B26</f>
         <v/>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="15">
         <f>C16-C25-C26</f>
         <v/>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="15">
         <f>D16-D25-D26</f>
         <v/>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="15">
         <f>E16-E25-E26</f>
         <v/>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="15">
         <f>F16-F25-F26</f>
         <v/>
       </c>
@@ -1089,23 +1100,23 @@
           <t>Total Equity</t>
         </is>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="16">
         <f>SUM(B26:B27)</f>
         <v/>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="16">
         <f>SUM(C26:C27)</f>
         <v/>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="16">
         <f>SUM(D26:D27)</f>
         <v/>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="16">
         <f>SUM(E26:E27)</f>
         <v/>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="16">
         <f>SUM(F26:F27)</f>
         <v/>
       </c>
@@ -1116,23 +1127,23 @@
           <t>Total Liabilities &amp; Equity</t>
         </is>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="16">
         <f>SUM(B25:B28)</f>
         <v/>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="16">
         <f>SUM(C25:C28)</f>
         <v/>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="16">
         <f>SUM(D25:D28)</f>
         <v/>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="16">
         <f>SUM(E25:E28)</f>
         <v/>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="16">
         <f>SUM(F25:F28)</f>
         <v/>
       </c>
@@ -1143,23 +1154,23 @@
           <t>Balance Check</t>
         </is>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="17">
         <f>B16-B29</f>
         <v/>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="17">
         <f>C16-C29</f>
         <v/>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="17">
         <f>D16-D29</f>
         <v/>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="17">
         <f>E16-E29</f>
         <v/>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="17">
         <f>F16-F29</f>
         <v/>
       </c>
@@ -1197,19 +1208,19 @@
           <t>Growth Driver</t>
         </is>
       </c>
-      <c r="B32" s="13" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C32" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D32" s="13" t="n">
+      <c r="B32" s="18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C32" s="18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D32" s="18" t="n">
         <v>0.08</v>
       </c>
-      <c r="E32" s="13" t="n">
+      <c r="E32" s="18" t="n">
         <v>0.06</v>
       </c>
-      <c r="F32" s="13" t="n">
+      <c r="F32" s="18" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1238,6 +1249,18 @@
       <c r="F33" s="14">
         <f>IF(ABS(F30)&lt;0.01,"OK","CHECK")</f>
         <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="19" t="inlineStr">
+        <is>
+          <t>Modified variant marker</t>
+        </is>
+      </c>
+      <c r="B34" s="20" t="inlineStr">
+        <is>
+          <t>v2</t>
+        </is>
       </c>
     </row>
   </sheetData>
